--- a/CompTIA-N+/Understanding-Concepts.xlsx
+++ b/CompTIA-N+/Understanding-Concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e40052131\Downloads\IMP-MY_FILES\CompTIA-NW+\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF2F96F-08ED-44E4-9917-B8A47C1B0EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC226CD-D850-40EC-ACC1-7F2820E8E39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="270" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH-7-Routing-Table" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CH-8-TCP-UDP" sheetId="3" r:id="rId3"/>
     <sheet name="CH-8-ICMP-IGMP" sheetId="4" r:id="rId4"/>
     <sheet name="CH-8-Webservers" sheetId="5" r:id="rId5"/>
+    <sheet name="CH-9-NW-Service-Scenarios" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="202">
   <si>
     <t>IPv4 Route Table</t>
   </si>
@@ -649,6 +650,15 @@
   </si>
   <si>
     <t>Port 123</t>
+  </si>
+  <si>
+    <t>DHCP Scope ranges need to be consider gateway, printers and other type of hosts to provide fro IP reservations</t>
+  </si>
+  <si>
+    <t>MAC reservations can be used to define devices that may have to priority  for address assignmen</t>
+  </si>
+  <si>
+    <t>IPAM tools track and manage alloted IP addresses, keeping  address requirement available for server and VM farms</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D513DC81-82B8-41DE-AD88-15548D8A440A}">
   <dimension ref="B3:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -2745,6 +2755,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0243DC-6D12-493C-86CD-30899A48246D}">
+  <dimension ref="B3:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f2ca5d04-7a32-4596-a5dd-1b62abd3005a}" enabled="1" method="Privileged" siteId="{7a18110d-ef9b-4274-acef-e62ab0fe28ed}" contentBits="0" removed="0"/>
